--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/19,08,25 Ост КИ филиалы/дв 19,08,25 бррсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/19,08,25 Ост КИ филиалы/дв 19,08,25 бррсч ост ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\19,08,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\08,25\19,08,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9DA4B7-1DB7-41C2-9A60-2496EE7EE7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D5AB1-B202-4819-9E8C-70BE6A6A8FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="174">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -608,6 +608,9 @@
   <si>
     <t>Мкд Трейд / Пекарня</t>
   </si>
+  <si>
+    <t>комментарии</t>
+  </si>
 </sst>
 </file>
 
@@ -1072,7 +1075,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1298,9 @@
       <c r="AF3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="AH3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>37.322800000000001</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" ref="R17:R34" si="8">14*Q17-P17-O17-F17</f>
+        <f t="shared" ref="R17:R28" si="8">14*Q17-P17-O17-F17</f>
         <v>4.9071999999999534</v>
       </c>
       <c r="S17" s="4"/>
@@ -7496,7 +7501,7 @@
         <v>41</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" ref="R60:R62" si="17">14*Q60-P60-O60-F60</f>
+        <f t="shared" ref="R60:R61" si="17">14*Q60-P60-O60-F60</f>
         <v>90</v>
       </c>
       <c r="S60" s="4"/>
@@ -10873,7 +10878,7 @@
         <v>13</v>
       </c>
       <c r="R91" s="4">
-        <f t="shared" ref="R91:R92" si="27">14*Q91-P91-O91-F91</f>
+        <f t="shared" ref="R91" si="27">14*Q91-P91-O91-F91</f>
         <v>78</v>
       </c>
       <c r="S91" s="4"/>
@@ -12038,7 +12043,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9">
-        <f t="shared" ref="L102:L133" si="30">E102-K102</f>
+        <f t="shared" ref="L102:L114" si="30">E102-K102</f>
         <v>0</v>
       </c>
       <c r="M102" s="9"/>
